--- a/data/trans_orig/P26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P26-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>205847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179405</v>
+        <v>182040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>230142</v>
+        <v>232247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2206137289058998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1922754193525463</v>
+        <v>0.1950989415553704</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2466512139152733</v>
+        <v>0.248907884342483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>365</v>
@@ -765,19 +765,19 @@
         <v>371603</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>340414</v>
+        <v>339260</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>400842</v>
+        <v>405664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.327702690598928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3001979383797279</v>
+        <v>0.2991809922436248</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3534871653884202</v>
+        <v>0.3577397557929537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>572</v>
@@ -786,19 +786,19 @@
         <v>577450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>539173</v>
+        <v>533675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>619344</v>
+        <v>618679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2793623265635083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2608442590428833</v>
+        <v>0.2581847716362114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2996302532968472</v>
+        <v>0.2993081299088702</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>727218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>702923</v>
+        <v>700818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>753660</v>
+        <v>751025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7793862710941002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7533487860847268</v>
+        <v>0.7510921156575169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8077245806474538</v>
+        <v>0.8049010584446297</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>751</v>
@@ -836,19 +836,19 @@
         <v>762361</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>733122</v>
+        <v>728300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>793550</v>
+        <v>794704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6722973094010719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6465128346115797</v>
+        <v>0.6422602442070463</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6998020616202721</v>
+        <v>0.7008190077563752</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1482</v>
@@ -857,19 +857,19 @@
         <v>1489579</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1447685</v>
+        <v>1448350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1527856</v>
+        <v>1533354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7206376734364917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7003697467031529</v>
+        <v>0.7006918700911299</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7391557409571168</v>
+        <v>0.7418152283637885</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>534796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>497891</v>
+        <v>496561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>575190</v>
+        <v>573532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3337046426105765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3106764596426975</v>
+        <v>0.3098469882364349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3589097805589456</v>
+        <v>0.357875460930704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>637</v>
@@ -982,19 +982,19 @@
         <v>648094</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>610313</v>
+        <v>609822</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>684101</v>
+        <v>685608</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4269167922442526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4020290978125379</v>
+        <v>0.4017056547060948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4506350615495598</v>
+        <v>0.4516282421630542</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1160</v>
@@ -1003,19 +1003,19 @@
         <v>1182890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1128796</v>
+        <v>1129867</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1237976</v>
+        <v>1239217</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3790484308850011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3617143722269515</v>
+        <v>0.3620576762573315</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.396700273317639</v>
+        <v>0.3970980527990153</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1067806</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1027412</v>
+        <v>1029070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1104711</v>
+        <v>1106041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6662953573894236</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6410902194410547</v>
+        <v>0.642124539069296</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6893235403573025</v>
+        <v>0.6901530117635652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>853</v>
@@ -1053,19 +1053,19 @@
         <v>869987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>833980</v>
+        <v>832473</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>907768</v>
+        <v>908259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5730832077557474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.54936493845044</v>
+        <v>0.5483717578369458</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5979709021874614</v>
+        <v>0.5982943452939051</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1897</v>
@@ -1074,19 +1074,19 @@
         <v>1937793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1882707</v>
+        <v>1881466</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1991887</v>
+        <v>1990816</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6209515691149989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.603299726682361</v>
+        <v>0.6029019472009847</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6382856277730483</v>
+        <v>0.6379423237426685</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>133242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113139</v>
+        <v>113414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156183</v>
+        <v>155401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2581217114377928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2191778653631105</v>
+        <v>0.2197088767449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3025630586220025</v>
+        <v>0.3010493915835536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -1199,19 +1199,19 @@
         <v>127132</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>107690</v>
+        <v>109002</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146606</v>
+        <v>150236</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2887116556265791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2445613571149864</v>
+        <v>0.2475410677237755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3329378589438867</v>
+        <v>0.3411820334868841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>248</v>
@@ -1220,19 +1220,19 @@
         <v>260374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>232612</v>
+        <v>234468</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287022</v>
+        <v>290896</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2722037313752095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2431808099872327</v>
+        <v>0.2451204948899181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3000628446012125</v>
+        <v>0.3041128650907531</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>382957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>360016</v>
+        <v>360798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>403060</v>
+        <v>402785</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7418782885622073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6974369413779974</v>
+        <v>0.6989506084164465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7808221346368894</v>
+        <v>0.7802911232551004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>294</v>
@@ -1270,19 +1270,19 @@
         <v>313209</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293735</v>
+        <v>290105</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332651</v>
+        <v>331339</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7112883443734208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6670621410561133</v>
+        <v>0.6588179665131161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7554386428850143</v>
+        <v>0.7524589322762246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>662</v>
@@ -1291,19 +1291,19 @@
         <v>696166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>669518</v>
+        <v>665644</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>723928</v>
+        <v>722072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7277962686247904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6999371553987874</v>
+        <v>0.6958871349092468</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7568191900127672</v>
+        <v>0.7548795051100817</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>873885</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2863444452436598</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1124</v>
@@ -1416,19 +1416,19 @@
         <v>1146829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3708556685110074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1980</v>
@@ -1437,19 +1437,19 @@
         <v>2020714</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.328878730484034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2177981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2125653</v>
+        <v>2120294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2226077</v>
+        <v>2225551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7136555547563402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6965093232348978</v>
+        <v>0.6947532973840556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7294151949455991</v>
+        <v>0.7292425588317967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1898</v>
@@ -1487,19 +1487,19 @@
         <v>1945558</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1890442</v>
+        <v>1894364</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2001328</v>
+        <v>1999471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6291443314889926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6113212578191196</v>
+        <v>0.6125895128368453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6471789449176214</v>
+        <v>0.6465785639041011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4041</v>
@@ -1508,19 +1508,19 @@
         <v>4123539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4048364</v>
+        <v>4048919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4193257</v>
+        <v>4193363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.671121269515966</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6588862731502828</v>
+        <v>0.6589766319602531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6824682302563996</v>
+        <v>0.6824854538741422</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>241927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>213597</v>
+        <v>215042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268742</v>
+        <v>271114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2611594665961823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2305774004081041</v>
+        <v>0.2321377304473322</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2901070956856352</v>
+        <v>0.2926676812758033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>398</v>
@@ -1872,19 +1872,19 @@
         <v>419878</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>388728</v>
+        <v>386286</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>452856</v>
+        <v>455423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3438868570850759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3183741479651726</v>
+        <v>0.3163744258180795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3708961344879357</v>
+        <v>0.3729985958527518</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>628</v>
@@ -1893,19 +1893,19 @@
         <v>661805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>619019</v>
+        <v>618036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>708612</v>
+        <v>703587</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3081983997281207</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2882732442450712</v>
+        <v>0.2878154970078317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3299962611136644</v>
+        <v>0.3276559090959705</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>684429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657614</v>
+        <v>655242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>712759</v>
+        <v>711314</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7388405334038177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7098929043143649</v>
+        <v>0.7073323187241966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.769422599591896</v>
+        <v>0.7678622695526678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>741</v>
@@ -1943,19 +1943,19 @@
         <v>801100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>768122</v>
+        <v>765555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>832250</v>
+        <v>834692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6561131429149242</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6291038655120639</v>
+        <v>0.627001404147248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6816258520348272</v>
+        <v>0.6836255741819205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1375</v>
@@ -1964,19 +1964,19 @@
         <v>1485529</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1438722</v>
+        <v>1443747</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1528315</v>
+        <v>1529298</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6918016002718792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6700037388863358</v>
+        <v>0.6723440909040296</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7117267557549292</v>
+        <v>0.7121845029921684</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>702904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>663014</v>
+        <v>659102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>751490</v>
+        <v>747668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3705823786898019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3495514602601852</v>
+        <v>0.3474890293096669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3961975875189311</v>
+        <v>0.3941826626871653</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>707</v>
@@ -2089,19 +2089,19 @@
         <v>757215</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>717726</v>
+        <v>715256</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>799369</v>
+        <v>800045</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4440194246752939</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4208638084176514</v>
+        <v>0.4194153687002254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4687375375633389</v>
+        <v>0.4691343506039829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1370</v>
@@ -2110,19 +2110,19 @@
         <v>1460120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1400704</v>
+        <v>1402509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1519393</v>
+        <v>1522307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4053499463230804</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3888553529993153</v>
+        <v>0.3893563720195925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4218051775077272</v>
+        <v>0.4226141727180047</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1193852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1145266</v>
+        <v>1149088</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1233742</v>
+        <v>1237654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6294176213101982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6038024124810688</v>
+        <v>0.6058173373128345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6504485397398148</v>
+        <v>0.6525109706903331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>882</v>
@@ -2160,19 +2160,19 @@
         <v>948150</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>905996</v>
+        <v>905320</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>987639</v>
+        <v>990109</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5559805753247061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5312624624366611</v>
+        <v>0.5308656493960171</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5791361915823485</v>
+        <v>0.5805846312997746</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2013</v>
@@ -2181,19 +2181,19 @@
         <v>2142001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2082728</v>
+        <v>2079814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2201417</v>
+        <v>2199612</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5946500536769197</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5781948224922728</v>
+        <v>0.5773858272819954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6111446470006846</v>
+        <v>0.6106436279804075</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>133223</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115404</v>
+        <v>113186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154708</v>
+        <v>153434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2958087943953316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2562439435209719</v>
+        <v>0.2513183892618491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.343514473370296</v>
+        <v>0.3406869234258226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -2306,19 +2306,19 @@
         <v>125362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106008</v>
+        <v>105846</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>148854</v>
+        <v>146378</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2899416595365802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2451799571308446</v>
+        <v>0.2448032234220189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3442744394569902</v>
+        <v>0.3385470471318786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -2327,19 +2327,19 @@
         <v>258585</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>231723</v>
+        <v>230064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288779</v>
+        <v>288208</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2929350380681198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2625049368282088</v>
+        <v>0.2606256242716707</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3271406181215218</v>
+        <v>0.3264927108620035</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>317145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295660</v>
+        <v>296934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>334964</v>
+        <v>337182</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7041912056046683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6564855266297038</v>
+        <v>0.6593130765741777</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7437560564790281</v>
+        <v>0.7486816107381509</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>278</v>
@@ -2377,19 +2377,19 @@
         <v>307008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283516</v>
+        <v>285992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326362</v>
+        <v>326524</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7100583404634199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6557255605430098</v>
+        <v>0.6614529528681212</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7548200428691554</v>
+        <v>0.7551967765779809</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -2398,19 +2398,19 @@
         <v>624153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>593959</v>
+        <v>594530</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651015</v>
+        <v>652674</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7070649619318802</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.672859381878478</v>
+        <v>0.6735072891379965</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7374950631717911</v>
+        <v>0.7393743757283292</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1078054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1018568</v>
+        <v>1024305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1125914</v>
+        <v>1138805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3293295747048207</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3111574772201395</v>
+        <v>0.3129102596206811</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3439501487812914</v>
+        <v>0.3478882615024059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1215</v>
@@ -2523,19 +2523,19 @@
         <v>1302456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1246697</v>
+        <v>1243774</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1367712</v>
+        <v>1358231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3877841173218172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3711828227225712</v>
+        <v>0.3703127347358384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4072129865787417</v>
+        <v>0.4043904201670492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2231</v>
@@ -2544,19 +2544,19 @@
         <v>2380510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2299555</v>
+        <v>2296109</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2461884</v>
+        <v>2455965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.358932458407889</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3467261784510678</v>
+        <v>0.3462065316828243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3712019906441391</v>
+        <v>0.3703096426497645</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2195426</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2147566</v>
+        <v>2134675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2254912</v>
+        <v>2249175</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6706704252951794</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6560498512187085</v>
+        <v>0.6521117384975941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6888425227798606</v>
+        <v>0.6870897403793189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1901</v>
@@ -2594,19 +2594,19 @@
         <v>2056257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1991001</v>
+        <v>2000482</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2112016</v>
+        <v>2114939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6122158826781827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5927870134212583</v>
+        <v>0.5956095798329507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6288171772774288</v>
+        <v>0.6296872652641617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3954</v>
@@ -2615,19 +2615,19 @@
         <v>4251684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4170310</v>
+        <v>4176229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4332639</v>
+        <v>4336085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.641067541592111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6287980093558608</v>
+        <v>0.6296903573502358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6532738215489322</v>
+        <v>0.6537934683171762</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>151364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129294</v>
+        <v>131212</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173726</v>
+        <v>172596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2233066107682102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1907471963504124</v>
+        <v>0.1935763466031052</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2562962451294424</v>
+        <v>0.2546304044455416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -2979,19 +2979,19 @@
         <v>186165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161176</v>
+        <v>160950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>210482</v>
+        <v>211434</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2119099484514541</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1834661567769916</v>
+        <v>0.1832085721561572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2395907304322007</v>
+        <v>0.2406738164855523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>321</v>
@@ -3000,19 +3000,19 @@
         <v>337529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>302029</v>
+        <v>305624</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368186</v>
+        <v>369761</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2168735258027341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.194063604441412</v>
+        <v>0.1963735188790978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2365721132332048</v>
+        <v>0.2375840077716811</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>526467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>504105</v>
+        <v>505235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>548537</v>
+        <v>546619</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7766933892317898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7437037548705576</v>
+        <v>0.7453695955544584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8092528036495876</v>
+        <v>0.8064236533968948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>621</v>
@@ -3050,19 +3050,19 @@
         <v>692343</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>668026</v>
+        <v>667074</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>717332</v>
+        <v>717558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7880900515485458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7604092695677991</v>
+        <v>0.7593261835144474</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.816533843223008</v>
+        <v>0.8167914278438428</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1158</v>
@@ -3071,19 +3071,19 @@
         <v>1218810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1188153</v>
+        <v>1186578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1254310</v>
+        <v>1250715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7831264741972659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7634278867667957</v>
+        <v>0.7624159922283189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8059363955585881</v>
+        <v>0.8036264811209023</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>541537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>503871</v>
+        <v>503645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>582778</v>
+        <v>583922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2756215142123054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2564508365831448</v>
+        <v>0.2563362518322093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2966115519517019</v>
+        <v>0.2971942459402377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>561</v>
@@ -3196,19 +3196,19 @@
         <v>577035</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>537936</v>
+        <v>535198</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>621319</v>
+        <v>617114</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3056879030366866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2849748076640847</v>
+        <v>0.2835246522811448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3291478893546919</v>
+        <v>0.326920145379678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1066</v>
@@ -3217,19 +3217,19 @@
         <v>1118572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1066636</v>
+        <v>1062630</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1178658</v>
+        <v>1176521</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2903537502459912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2768724958625532</v>
+        <v>0.2758326257503247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3059507401579439</v>
+        <v>0.3053959339529363</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1423247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1382006</v>
+        <v>1380862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1460913</v>
+        <v>1461139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7243784857876947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7033884480482981</v>
+        <v>0.7028057540597623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7435491634168552</v>
+        <v>0.7436637481677912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1254</v>
@@ -3267,19 +3267,19 @@
         <v>1310625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1266341</v>
+        <v>1270546</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1349724</v>
+        <v>1352462</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6943120969633134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.670852110645308</v>
+        <v>0.673079854620322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7150251923359153</v>
+        <v>0.7164753477188551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2595</v>
@@ -3288,19 +3288,19 @@
         <v>2733872</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2673786</v>
+        <v>2675923</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2785808</v>
+        <v>2789814</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7096462497540088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.694049259842056</v>
+        <v>0.6946040660470637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7231275041374466</v>
+        <v>0.7241673742496751</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>98893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81758</v>
+        <v>80607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118695</v>
+        <v>117437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2011688394202978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1663117987598103</v>
+        <v>0.1639715441095516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2414482685552154</v>
+        <v>0.2388905702191566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -3413,19 +3413,19 @@
         <v>113067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95369</v>
+        <v>94241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>134563</v>
+        <v>132951</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2233852816206666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1884191456050853</v>
+        <v>0.1861903291738342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2658539193478736</v>
+        <v>0.2626692432742701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -3434,19 +3434,19 @@
         <v>211961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185304</v>
+        <v>187385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240849</v>
+        <v>238855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.212439158286239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1857221419457922</v>
+        <v>0.1878077962325962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2413925683076484</v>
+        <v>0.2393938947003861</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>392701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>372899</v>
+        <v>374157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>409836</v>
+        <v>410987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7988311605797022</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7585517314447843</v>
+        <v>0.7611094297808435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8336882012401894</v>
+        <v>0.8360284558904485</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>378</v>
@@ -3484,19 +3484,19 @@
         <v>393087</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>371591</v>
+        <v>373203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>410785</v>
+        <v>411913</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7766147183793334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7341460806521266</v>
+        <v>0.7373307567257293</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8115808543949147</v>
+        <v>0.8138096708261657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>741</v>
@@ -3505,19 +3505,19 @@
         <v>785787</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>756899</v>
+        <v>758893</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>812444</v>
+        <v>810363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7875608417137611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7586074316923516</v>
+        <v>0.7606061052996139</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8142778580542078</v>
+        <v>0.8121922037674039</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>791794</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>743054</v>
+        <v>740040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>841992</v>
+        <v>838664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2526296993766096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2370787852502136</v>
+        <v>0.2361169627090503</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2686456164309275</v>
+        <v>0.2675839273945419</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>842</v>
@@ -3630,19 +3630,19 @@
         <v>876267</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>828728</v>
+        <v>826061</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>928022</v>
+        <v>927978</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2677813337101387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2532537603346733</v>
+        <v>0.2524389360428868</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2835974795090917</v>
+        <v>0.2835840281065549</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1584</v>
@@ -3651,19 +3651,19 @@
         <v>1668061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1593634</v>
+        <v>1605363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1738504</v>
+        <v>1744955</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2603688369026309</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2487515031789061</v>
+        <v>0.2505822871174012</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2713642857607284</v>
+        <v>0.2723712794354925</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2342415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2292217</v>
+        <v>2295545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2391155</v>
+        <v>2394169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7473703006233904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7313543835690726</v>
+        <v>0.7324160726054578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7629212147497864</v>
+        <v>0.7638830372909493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2253</v>
@@ -3701,19 +3701,19 @@
         <v>2396055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2344300</v>
+        <v>2344344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2443594</v>
+        <v>2446261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7322186662898613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7164025204909084</v>
+        <v>0.7164159718934451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7467462396653267</v>
+        <v>0.7475610639571127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4494</v>
@@ -3722,19 +3722,19 @@
         <v>4738470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4668027</v>
+        <v>4661576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4812897</v>
+        <v>4801168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7396311630973691</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7286357142392715</v>
+        <v>0.7276287205645076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7512484968210938</v>
+        <v>0.7494177128825988</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>58062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44703</v>
+        <v>43869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74222</v>
+        <v>74347</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1191811006325166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09176105373358037</v>
+        <v>0.0900491538571786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1523519693817194</v>
+        <v>0.1526090047953606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -4086,19 +4086,19 @@
         <v>74251</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61382</v>
+        <v>61301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88927</v>
+        <v>88637</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1098079436925551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09077514894408513</v>
+        <v>0.09065644861352613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.131511785937386</v>
+        <v>0.1310821016807537</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -4107,19 +4107,19 @@
         <v>132313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>112591</v>
+        <v>111748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154805</v>
+        <v>153405</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1137330574924714</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09678016474677104</v>
+        <v>0.09605611567053059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.133066399012211</v>
+        <v>0.1318627945635138</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>429110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412950</v>
+        <v>412825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>442469</v>
+        <v>443303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8808188993674835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8476480306182805</v>
+        <v>0.8473909952046405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9082389462664195</v>
+        <v>0.9099508461428217</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1041</v>
@@ -4157,19 +4157,19 @@
         <v>601942</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>587266</v>
+        <v>587556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>614811</v>
+        <v>614892</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8901920563074447</v>
+        <v>0.8901920563074449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.868488214062614</v>
+        <v>0.8689178983192464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9092248510559149</v>
+        <v>0.9093435513864739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1572</v>
@@ -4178,19 +4178,19 @@
         <v>1031053</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1008561</v>
+        <v>1009961</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1050775</v>
+        <v>1051618</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8862669425075286</v>
+        <v>0.8862669425075287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8669336009877889</v>
+        <v>0.8681372054364861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9032198352532289</v>
+        <v>0.9039438843294694</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>240272</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209418</v>
+        <v>205116</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>286492</v>
+        <v>281228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1178329723031049</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1027018017812946</v>
+        <v>0.1005918272951141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1404997066303019</v>
+        <v>0.1379181494903401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>397</v>
@@ -4303,19 +4303,19 @@
         <v>315514</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>286527</v>
+        <v>284947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>349082</v>
+        <v>349254</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1550957629706025</v>
+        <v>0.1550957629706026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1408466651552548</v>
+        <v>0.1400697573927783</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1715964879728098</v>
+        <v>0.1716808394147346</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>584</v>
@@ -4324,19 +4324,19 @@
         <v>555786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>511322</v>
+        <v>513116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>608581</v>
+        <v>603136</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1364425431852877</v>
+        <v>0.1364425431852878</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1255267089806255</v>
+        <v>0.1259671124197602</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1494033028731967</v>
+        <v>0.1480665346003906</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1798818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1752598</v>
+        <v>1757862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1829672</v>
+        <v>1833974</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.882167027696895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8595002933696979</v>
+        <v>0.86208185050966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8972981982187052</v>
+        <v>0.899408172704886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2317</v>
@@ -4374,19 +4374,19 @@
         <v>1718805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1685237</v>
+        <v>1685065</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1747792</v>
+        <v>1749372</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8449042370293977</v>
+        <v>0.8449042370293975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8284035120271901</v>
+        <v>0.8283191605852652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8591533348447452</v>
+        <v>0.8599302426072214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3942</v>
@@ -4395,19 +4395,19 @@
         <v>3517623</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3464828</v>
+        <v>3470273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3562087</v>
+        <v>3560293</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8635574568147122</v>
+        <v>0.8635574568147123</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8505966971268033</v>
+        <v>0.851933465399609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8744732910193742</v>
+        <v>0.8740328875802397</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>67466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50832</v>
+        <v>48609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89324</v>
+        <v>90539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1017403477886241</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.076655149430884</v>
+        <v>0.07330303914833659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1347018077459351</v>
+        <v>0.1365346336403839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -4520,19 +4520,19 @@
         <v>76425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62644</v>
+        <v>62188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94707</v>
+        <v>92847</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1101457052791714</v>
+        <v>0.1101457052791715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09028502485135899</v>
+        <v>0.08962784845814724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1364949562531611</v>
+        <v>0.1338140220360646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -4541,19 +4541,19 @@
         <v>143891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121615</v>
+        <v>122806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170562</v>
+        <v>170116</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1060381921088738</v>
+        <v>0.1060381921088737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0896220261070419</v>
+        <v>0.09049959232977106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1256928527814882</v>
+        <v>0.1253641463784592</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>595658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573800</v>
+        <v>572585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>612292</v>
+        <v>614515</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8982596522113758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8652981922540648</v>
+        <v>0.8634653663596158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9233448505691159</v>
+        <v>0.9266969608516633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>852</v>
@@ -4591,19 +4591,19 @@
         <v>617426</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>599144</v>
+        <v>601004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>631207</v>
+        <v>631663</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8898542947208286</v>
+        <v>0.8898542947208284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8635050437468389</v>
+        <v>0.8661859779639355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9097149751486412</v>
+        <v>0.9103721515418527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1438</v>
@@ -4612,19 +4612,19 @@
         <v>1213083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1186412</v>
+        <v>1186858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1235359</v>
+        <v>1234168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8939618078911262</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8743071472185114</v>
+        <v>0.8746358536215408</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9103779738929578</v>
+        <v>0.909500407670229</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>365800</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>324335</v>
+        <v>325166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>411464</v>
+        <v>412573</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1146929862962366</v>
+        <v>0.1146929862962367</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.10169209239699</v>
+        <v>0.1019526351446754</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1290103971507798</v>
+        <v>0.1293581859145577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>603</v>
@@ -4737,19 +4737,19 @@
         <v>466190</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>427451</v>
+        <v>427417</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>505092</v>
+        <v>506395</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1369390736048651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1255596816823791</v>
+        <v>0.1255496995085699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1483661124538362</v>
+        <v>0.1487489314162933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>898</v>
@@ -4758,19 +4758,19 @@
         <v>831991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>774703</v>
+        <v>766959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>894065</v>
+        <v>886538</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1261786760203092</v>
+        <v>0.1261786760203091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1174905356390887</v>
+        <v>0.116316064934713</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1355927943620524</v>
+        <v>0.1344513030850022</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2823586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2777922</v>
+        <v>2776813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2865051</v>
+        <v>2864220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8853070137037634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.87098960284922</v>
+        <v>0.8706418140854422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.89830790760301</v>
+        <v>0.8980473648553248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4210</v>
@@ -4808,19 +4808,19 @@
         <v>2938173</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2899271</v>
+        <v>2897968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2976912</v>
+        <v>2976946</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8630609263951351</v>
+        <v>0.8630609263951348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8516338875461639</v>
+        <v>0.8512510685837068</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8744403183176214</v>
+        <v>0.8744503004914302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6952</v>
@@ -4829,19 +4829,19 @@
         <v>5761758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5699684</v>
+        <v>5707211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5819046</v>
+        <v>5826790</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8738213239796909</v>
+        <v>0.8738213239796907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8644072056379475</v>
+        <v>0.8655486969149978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8825094643609114</v>
+        <v>0.8836839350652871</v>
       </c>
     </row>
     <row r="15">
